--- a/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST_since_2021/AR2_50_9_matched_error_tables_latest_since_2021.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST_since_2021/AR2_50_9_matched_error_tables_latest_since_2021.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.2685187216796787</v>
+        <v>0.2736504459652551</v>
       </c>
       <c r="C2">
-        <v>0.6303597304128453</v>
+        <v>0.6164471910808867</v>
       </c>
       <c r="D2">
-        <v>0.5322814255568827</v>
+        <v>0.5099410358193527</v>
       </c>
       <c r="E2">
-        <v>0.7295761958540607</v>
+        <v>0.7141015584770507</v>
       </c>
       <c r="F2">
-        <v>0.6980318629993187</v>
+        <v>0.6776623592093396</v>
       </c>
       <c r="G2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.1702341557624833</v>
+        <v>0.1679866110975223</v>
       </c>
       <c r="C3">
-        <v>0.4981189120770266</v>
+        <v>0.4776555476168131</v>
       </c>
       <c r="D3">
-        <v>0.4162989568189735</v>
+        <v>0.3912275594536091</v>
       </c>
       <c r="E3">
-        <v>0.645212334676712</v>
+        <v>0.6254818618102439</v>
       </c>
       <c r="F3">
-        <v>0.6415035031823549</v>
+        <v>0.6199689291560088</v>
       </c>
       <c r="G3">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.2490111865258687</v>
+        <v>0.2407374606666166</v>
       </c>
       <c r="C4">
-        <v>0.3420743309824709</v>
+        <v>0.3283263025081246</v>
       </c>
       <c r="D4">
-        <v>0.1664507148167752</v>
+        <v>0.1549134947928615</v>
       </c>
       <c r="E4">
-        <v>0.4079837188133555</v>
+        <v>0.393590516644979</v>
       </c>
       <c r="F4">
-        <v>0.3337770014873271</v>
+        <v>0.320965582950402</v>
       </c>
       <c r="G4">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.3082066651482941</v>
+        <v>0.3026896478973899</v>
       </c>
       <c r="C5">
-        <v>0.410015351564457</v>
+        <v>0.3981352914125425</v>
       </c>
       <c r="D5">
-        <v>0.2258729642110856</v>
+        <v>0.2125958988159086</v>
       </c>
       <c r="E5">
-        <v>0.4752609432838824</v>
+        <v>0.4610812280020827</v>
       </c>
       <c r="F5">
-        <v>0.3744733670234958</v>
+        <v>0.3592211959175575</v>
       </c>
       <c r="G5">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.3400314796628744</v>
+        <v>0.3313557959155047</v>
       </c>
       <c r="C6">
-        <v>0.4058678457427279</v>
+        <v>0.3928030709233679</v>
       </c>
       <c r="D6">
-        <v>0.2291742750255581</v>
+        <v>0.2145494597484939</v>
       </c>
       <c r="E6">
-        <v>0.4787215004839016</v>
+        <v>0.463194839941567</v>
       </c>
       <c r="F6">
-        <v>0.3496965882781246</v>
+        <v>0.3350151322728833</v>
       </c>
       <c r="G6">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.3860484381582261</v>
+        <v>0.3718062059916627</v>
       </c>
       <c r="C7">
-        <v>0.3948416759115922</v>
+        <v>0.3799713553340741</v>
       </c>
       <c r="D7">
-        <v>0.2306671010775233</v>
+        <v>0.2141292450220557</v>
       </c>
       <c r="E7">
-        <v>0.4802781496981965</v>
+        <v>0.4627410129025259</v>
       </c>
       <c r="F7">
-        <v>0.2973827721627644</v>
+        <v>0.2858794074584022</v>
       </c>
       <c r="G7">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.4170547931982507</v>
+        <v>0.4009368084426636</v>
       </c>
       <c r="C8">
-        <v>0.4298421859646028</v>
+        <v>0.4127405556116039</v>
       </c>
       <c r="D8">
-        <v>0.2460641650585421</v>
+        <v>0.227594880374374</v>
       </c>
       <c r="E8">
-        <v>0.4960485511102136</v>
+        <v>0.4770690519981086</v>
       </c>
       <c r="F8">
-        <v>0.2805114767295429</v>
+        <v>0.2691002335147636</v>
       </c>
       <c r="G8">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.4561107240873003</v>
+        <v>0.4356636671697872</v>
       </c>
       <c r="C9">
-        <v>0.4573567639696344</v>
+        <v>0.4368058703952601</v>
       </c>
       <c r="D9">
-        <v>0.2571857577301604</v>
+        <v>0.2362224927271332</v>
       </c>
       <c r="E9">
-        <v>0.5071348516224855</v>
+        <v>0.4860272551278716</v>
       </c>
       <c r="F9">
-        <v>0.2325158953985532</v>
+        <v>0.2250325111912971</v>
       </c>
       <c r="G9">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.4364895348557071</v>
+        <v>0.4167250561910649</v>
       </c>
       <c r="C10">
-        <v>0.4364895348557071</v>
+        <v>0.4167250561910649</v>
       </c>
       <c r="D10">
-        <v>0.2360994569889149</v>
+        <v>0.2156249438995315</v>
       </c>
       <c r="E10">
-        <v>0.485900665762988</v>
+        <v>0.4643543301182099</v>
       </c>
       <c r="F10">
-        <v>0.2250341775285687</v>
+        <v>0.2148527137047464</v>
       </c>
       <c r="G10">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.4002466170539443</v>
+        <v>0.3832484536769914</v>
       </c>
       <c r="C11">
-        <v>0.4002466170539443</v>
+        <v>0.3832484536769914</v>
       </c>
       <c r="D11">
-        <v>0.1999604358855671</v>
+        <v>0.1811246737723569</v>
       </c>
       <c r="E11">
-        <v>0.4471693592874708</v>
+        <v>0.4255874455060403</v>
       </c>
       <c r="F11">
-        <v>0.211502876103956</v>
+        <v>0.1950649365568976</v>
       </c>
       <c r="G11">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST_since_2021/AR2_50_9_matched_error_tables_latest_since_2021.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST_since_2021/AR2_50_9_matched_error_tables_latest_since_2021.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.2736504459652551</v>
+        <v>0.230598549219447</v>
       </c>
       <c r="C2">
-        <v>0.6164471910808867</v>
+        <v>0.7445381377257259</v>
       </c>
       <c r="D2">
-        <v>0.5099410358193527</v>
+        <v>1.018876335886205</v>
       </c>
       <c r="E2">
-        <v>0.7141015584770507</v>
+        <v>1.009394043912587</v>
       </c>
       <c r="F2">
-        <v>0.6776623592093396</v>
+        <v>1.011190667123304</v>
       </c>
       <c r="G2">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.1679866110975223</v>
+        <v>0.3045708550604296</v>
       </c>
       <c r="C3">
-        <v>0.4776555476168131</v>
+        <v>0.3907590825865097</v>
       </c>
       <c r="D3">
-        <v>0.3912275594536091</v>
+        <v>0.2095424611763801</v>
       </c>
       <c r="E3">
-        <v>0.6254818618102439</v>
+        <v>0.4577580814976182</v>
       </c>
       <c r="F3">
-        <v>0.6199689291560088</v>
+        <v>0.3522467123879903</v>
       </c>
       <c r="G3">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.2407374606666166</v>
+        <v>0.2502419823634077</v>
       </c>
       <c r="C4">
-        <v>0.3283263025081246</v>
+        <v>0.366077697295096</v>
       </c>
       <c r="D4">
-        <v>0.1549134947928615</v>
+        <v>0.1747842588224781</v>
       </c>
       <c r="E4">
-        <v>0.393590516644979</v>
+        <v>0.4180720737175327</v>
       </c>
       <c r="F4">
-        <v>0.320965582950402</v>
+        <v>0.345891249322188</v>
       </c>
       <c r="G4">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.3026896478973899</v>
+        <v>0.3395964577034516</v>
       </c>
       <c r="C5">
-        <v>0.3981352914125425</v>
+        <v>0.406420661795407</v>
       </c>
       <c r="D5">
-        <v>0.2125958988159086</v>
+        <v>0.2182909649593746</v>
       </c>
       <c r="E5">
-        <v>0.4610812280020827</v>
+        <v>0.4672161865340012</v>
       </c>
       <c r="F5">
-        <v>0.3592211959175575</v>
+        <v>0.3321443493336289</v>
       </c>
       <c r="G5">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.3313557959155047</v>
+        <v>0.3836894047943985</v>
       </c>
       <c r="C6">
-        <v>0.3928030709233679</v>
+        <v>0.3861383846528136</v>
       </c>
       <c r="D6">
-        <v>0.2145494597484939</v>
+        <v>0.2113509978471021</v>
       </c>
       <c r="E6">
-        <v>0.463194839941567</v>
+        <v>0.4597292658153297</v>
       </c>
       <c r="F6">
-        <v>0.3350151322728833</v>
+        <v>0.2628055933924591</v>
       </c>
       <c r="G6">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.3718062059916627</v>
+        <v>0.3925847413104661</v>
       </c>
       <c r="C7">
-        <v>0.3799713553340741</v>
+        <v>0.4061565136574045</v>
       </c>
       <c r="D7">
-        <v>0.2141292450220557</v>
+        <v>0.2245340717459249</v>
       </c>
       <c r="E7">
-        <v>0.4627410129025259</v>
+        <v>0.4738502630007974</v>
       </c>
       <c r="F7">
-        <v>0.2858794074584022</v>
+        <v>0.2761863507775066</v>
       </c>
       <c r="G7">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.4009368084426636</v>
+        <v>0.4359548671747835</v>
       </c>
       <c r="C8">
-        <v>0.4127405556116039</v>
+        <v>0.4359548671747835</v>
       </c>
       <c r="D8">
-        <v>0.227594880374374</v>
+        <v>0.2345424034301451</v>
       </c>
       <c r="E8">
-        <v>0.4770690519981086</v>
+        <v>0.4842957809336615</v>
       </c>
       <c r="F8">
-        <v>0.2691002335147636</v>
+        <v>0.2202950679514644</v>
       </c>
       <c r="G8">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.4356636671697872</v>
+        <v>0.4182767482978756</v>
       </c>
       <c r="C9">
-        <v>0.4368058703952601</v>
+        <v>0.4182767482978756</v>
       </c>
       <c r="D9">
-        <v>0.2362224927271332</v>
+        <v>0.2153166270150599</v>
       </c>
       <c r="E9">
-        <v>0.4860272551278716</v>
+        <v>0.4640222268545548</v>
       </c>
       <c r="F9">
-        <v>0.2250325111912971</v>
+        <v>0.2107066864939436</v>
       </c>
       <c r="G9">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.4167250561910649</v>
+        <v>0.3824308908543818</v>
       </c>
       <c r="C10">
-        <v>0.4167250561910649</v>
+        <v>0.3824308908543818</v>
       </c>
       <c r="D10">
-        <v>0.2156249438995315</v>
+        <v>0.1807831973670264</v>
       </c>
       <c r="E10">
-        <v>0.4643543301182099</v>
+        <v>0.4251860738159546</v>
       </c>
       <c r="F10">
-        <v>0.2148527137047464</v>
+        <v>0.1958735734184745</v>
       </c>
       <c r="G10">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.3832484536769914</v>
+        <v>0.3843625910566515</v>
       </c>
       <c r="C11">
-        <v>0.3832484536769914</v>
+        <v>0.3843625910566515</v>
       </c>
       <c r="D11">
-        <v>0.1811246737723569</v>
+        <v>0.1817866140615611</v>
       </c>
       <c r="E11">
-        <v>0.4255874455060403</v>
+        <v>0.4263644146285676</v>
       </c>
       <c r="F11">
-        <v>0.1950649365568976</v>
+        <v>0.195725609566047</v>
       </c>
       <c r="G11">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST_since_2021/AR2_50_9_matched_error_tables_latest_since_2021.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST_since_2021/AR2_50_9_matched_error_tables_latest_since_2021.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.230598549219447</v>
+        <v>0.2736504459652551</v>
       </c>
       <c r="C2">
-        <v>0.7445381377257259</v>
+        <v>0.6164471910808867</v>
       </c>
       <c r="D2">
-        <v>1.018876335886205</v>
+        <v>0.5099410358193527</v>
       </c>
       <c r="E2">
-        <v>1.009394043912587</v>
+        <v>0.7141015584770507</v>
       </c>
       <c r="F2">
-        <v>1.011190667123304</v>
+        <v>0.6776623592093396</v>
       </c>
       <c r="G2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.3045708550604296</v>
+        <v>0.1679866110975223</v>
       </c>
       <c r="C3">
-        <v>0.3907590825865097</v>
+        <v>0.4776555476168131</v>
       </c>
       <c r="D3">
-        <v>0.2095424611763801</v>
+        <v>0.3912275594536091</v>
       </c>
       <c r="E3">
-        <v>0.4577580814976182</v>
+        <v>0.6254818618102439</v>
       </c>
       <c r="F3">
-        <v>0.3522467123879903</v>
+        <v>0.6199689291560088</v>
       </c>
       <c r="G3">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.2502419823634077</v>
+        <v>0.2407374606666166</v>
       </c>
       <c r="C4">
-        <v>0.366077697295096</v>
+        <v>0.3283263025081246</v>
       </c>
       <c r="D4">
-        <v>0.1747842588224781</v>
+        <v>0.1549134947928615</v>
       </c>
       <c r="E4">
-        <v>0.4180720737175327</v>
+        <v>0.393590516644979</v>
       </c>
       <c r="F4">
-        <v>0.345891249322188</v>
+        <v>0.320965582950402</v>
       </c>
       <c r="G4">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.3395964577034516</v>
+        <v>0.3026896478973899</v>
       </c>
       <c r="C5">
-        <v>0.406420661795407</v>
+        <v>0.3981352914125425</v>
       </c>
       <c r="D5">
-        <v>0.2182909649593746</v>
+        <v>0.2125958988159086</v>
       </c>
       <c r="E5">
-        <v>0.4672161865340012</v>
+        <v>0.4610812280020827</v>
       </c>
       <c r="F5">
-        <v>0.3321443493336289</v>
+        <v>0.3592211959175575</v>
       </c>
       <c r="G5">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.3836894047943985</v>
+        <v>0.3313557959155047</v>
       </c>
       <c r="C6">
-        <v>0.3861383846528136</v>
+        <v>0.3928030709233679</v>
       </c>
       <c r="D6">
-        <v>0.2113509978471021</v>
+        <v>0.2145494597484939</v>
       </c>
       <c r="E6">
-        <v>0.4597292658153297</v>
+        <v>0.463194839941567</v>
       </c>
       <c r="F6">
-        <v>0.2628055933924591</v>
+        <v>0.3350151322728833</v>
       </c>
       <c r="G6">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.3925847413104661</v>
+        <v>0.3718062059916627</v>
       </c>
       <c r="C7">
-        <v>0.4061565136574045</v>
+        <v>0.3799713553340741</v>
       </c>
       <c r="D7">
-        <v>0.2245340717459249</v>
+        <v>0.2141292450220557</v>
       </c>
       <c r="E7">
-        <v>0.4738502630007974</v>
+        <v>0.4627410129025259</v>
       </c>
       <c r="F7">
-        <v>0.2761863507775066</v>
+        <v>0.2858794074584022</v>
       </c>
       <c r="G7">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.4359548671747835</v>
+        <v>0.4009368084426636</v>
       </c>
       <c r="C8">
-        <v>0.4359548671747835</v>
+        <v>0.4127405556116039</v>
       </c>
       <c r="D8">
-        <v>0.2345424034301451</v>
+        <v>0.227594880374374</v>
       </c>
       <c r="E8">
-        <v>0.4842957809336615</v>
+        <v>0.4770690519981086</v>
       </c>
       <c r="F8">
-        <v>0.2202950679514644</v>
+        <v>0.2691002335147636</v>
       </c>
       <c r="G8">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.4182767482978756</v>
+        <v>0.4356636671697872</v>
       </c>
       <c r="C9">
-        <v>0.4182767482978756</v>
+        <v>0.4368058703952601</v>
       </c>
       <c r="D9">
-        <v>0.2153166270150599</v>
+        <v>0.2362224927271332</v>
       </c>
       <c r="E9">
-        <v>0.4640222268545548</v>
+        <v>0.4860272551278716</v>
       </c>
       <c r="F9">
-        <v>0.2107066864939436</v>
+        <v>0.2250325111912971</v>
       </c>
       <c r="G9">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.3824308908543818</v>
+        <v>0.4167250561910649</v>
       </c>
       <c r="C10">
-        <v>0.3824308908543818</v>
+        <v>0.4167250561910649</v>
       </c>
       <c r="D10">
-        <v>0.1807831973670264</v>
+        <v>0.2156249438995315</v>
       </c>
       <c r="E10">
-        <v>0.4251860738159546</v>
+        <v>0.4643543301182099</v>
       </c>
       <c r="F10">
-        <v>0.1958735734184745</v>
+        <v>0.2148527137047464</v>
       </c>
       <c r="G10">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.3843625910566515</v>
+        <v>0.3832484536769914</v>
       </c>
       <c r="C11">
-        <v>0.3843625910566515</v>
+        <v>0.3832484536769914</v>
       </c>
       <c r="D11">
-        <v>0.1817866140615611</v>
+        <v>0.1811246737723569</v>
       </c>
       <c r="E11">
-        <v>0.4263644146285676</v>
+        <v>0.4255874455060403</v>
       </c>
       <c r="F11">
-        <v>0.195725609566047</v>
+        <v>0.1950649365568976</v>
       </c>
       <c r="G11">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
